--- a/FUND-202107.xlsx
+++ b/FUND-202107.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825213BA-39F2-443A-925F-1837A5D6F7CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDE9511-168F-4D15-8984-A3283235B222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>周1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大跌3%，加仓。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -310,9 +314,6 @@
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -325,6 +326,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -608,22 +612,23 @@
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="15" max="15" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -637,23 +642,23 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C2" s="3"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J2" s="1"/>
@@ -668,17 +673,17 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6">
         <v>10</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -694,17 +699,17 @@
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
         <v>10</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -717,17 +722,17 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
         <v>10</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -740,17 +745,17 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>10</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -763,17 +768,17 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="9">
+      <c r="D7" s="6"/>
+      <c r="E7" s="8">
         <v>100</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="1"/>
@@ -788,17 +793,17 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>50</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -811,17 +816,17 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6">
         <v>10</v>
       </c>
-      <c r="I9" s="8"/>
+      <c r="I9" s="7"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -834,40 +839,42 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>100</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6">
         <v>50</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="8"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -880,195 +887,195 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="10">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="9">
         <v>50</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="11">
+      <c r="D16" s="6"/>
+      <c r="E16" s="10">
         <v>50</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8" t="s">
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="6"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="6"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="8"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
     </row>
     <row r="26" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
     </row>
     <row r="29" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <f>SUM(D3:D18)</f>
         <v>60</v>
       </c>
-      <c r="E29" s="13">
-        <f t="shared" ref="E29:H29" si="0">SUM(E3:E18)</f>
+      <c r="E29" s="12">
+        <f t="shared" ref="E29:G29" si="0">SUM(E3:E18)</f>
         <v>160</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="12">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="12">
         <f>SUM(H3:H19)</f>
         <v>60</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="13">
         <f>SUM(D29:H29)</f>
         <v>450</v>
       </c>

--- a/FUND-202107.xlsx
+++ b/FUND-202107.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDE9511-168F-4D15-8984-A3283235B222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1B128C-566F-46D6-AB78-D4FEF0F9C9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>周1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>大跌3%，加仓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>易方达恒生国企ETF联接A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +616,7 @@
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -863,7 +867,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="5" t="s">
         <v>13</v>
       </c>
@@ -887,12 +891,16 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6">
+        <v>10</v>
+      </c>
       <c r="I12" s="7"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
@@ -1073,11 +1081,11 @@
       </c>
       <c r="H29" s="12">
         <f>SUM(H3:H19)</f>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="I29" s="13">
         <f>SUM(D29:H29)</f>
-        <v>450</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -1086,5 +1094,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/FUND-202107.xlsx
+++ b/FUND-202107.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1B128C-566F-46D6-AB78-D4FEF0F9C9E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C1DDB0-956C-49F1-BD3F-20C26C020BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>周1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>天弘中证银行ETF  A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,6 +108,14 @@
   </si>
   <si>
     <t>易方达恒生国企ETF联接A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001594</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>160716</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -315,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -333,12 +337,81 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -358,7 +431,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -616,7 +689,7 @@
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -663,7 +736,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -700,11 +773,11 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="B4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -726,8 +799,11 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>161017</v>
+      </c>
       <c r="C5" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6">
@@ -750,7 +826,7 @@
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" s="6">
         <v>10</v>
@@ -773,7 +849,7 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="8">
@@ -783,7 +859,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -798,7 +874,7 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="6">
         <v>50</v>
@@ -820,8 +896,11 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="15">
+        <v>501050</v>
+      </c>
       <c r="C9" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -843,8 +922,11 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B10" s="15">
+        <v>519671</v>
+      </c>
       <c r="C10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -860,7 +942,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -868,8 +950,11 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -891,8 +976,11 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>110031</v>
+      </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -922,8 +1010,11 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>4069</v>
+      </c>
       <c r="C15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -933,12 +1024,12 @@
         <v>50</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="10">
@@ -948,7 +1039,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
@@ -1061,7 +1152,7 @@
     </row>
     <row r="29" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D29" s="12">
         <f>SUM(D3:D18)</f>

--- a/FUND-202107.xlsx
+++ b/FUND-202107.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C1DDB0-956C-49F1-BD3F-20C26C020BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEAFD52-89C6-4D5B-81ED-C9FE6B5A743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>周1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,26 @@
   </si>
   <si>
     <t>160716</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/8/10恢复净值1.3321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006327</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004069</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>005354</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,88 +350,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -431,7 +387,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACE"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -689,23 +645,25 @@
   <dimension ref="B1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="8.75" style="14" customWidth="1"/>
     <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="10" max="10" width="24.25" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -738,7 +696,9 @@
       <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -750,6 +710,9 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B3" s="15" t="s">
+        <v>28</v>
+      </c>
       <c r="C3" s="5" t="s">
         <v>5</v>
       </c>
@@ -799,7 +762,7 @@
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5">
+      <c r="B5" s="14">
         <v>161017</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -825,6 +788,9 @@
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="14">
+        <v>501009</v>
+      </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
@@ -848,6 +814,9 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="14">
+        <v>164906</v>
+      </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
@@ -873,6 +842,9 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>26</v>
+      </c>
       <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
@@ -976,7 +948,7 @@
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12">
+      <c r="B12" s="14">
         <v>110031</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -1010,8 +982,8 @@
       <c r="I14" s="7"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>4069</v>
+      <c r="B15" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>13</v>
@@ -1032,14 +1004,15 @@
         <v>16</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="10">
+      <c r="E16" s="6">
         <v>50</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="7" t="s">
-        <v>18</v>
+      <c r="I16" s="7"/>
+      <c r="J16" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.2">
@@ -1151,30 +1124,30 @@
       <c r="I28" s="7"/>
     </row>
     <row r="29" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <f>SUM(D3:D18)</f>
         <v>60</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="11">
         <f t="shared" ref="E29:G29" si="0">SUM(E3:E18)</f>
         <v>160</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="11">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <f>SUM(H3:H19)</f>
         <v>70</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="12">
         <f>SUM(D29:H29)</f>
         <v>460</v>
       </c>

--- a/FUND-202107.xlsx
+++ b/FUND-202107.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CEAFD52-89C6-4D5B-81ED-C9FE6B5A743F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F226B3E-F35E-4603-9B0A-7F1810811289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>周1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,10 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021/8/10恢复净值1.3321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +132,34 @@
   </si>
   <si>
     <t>005354</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘恒生科技指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/8/10恢复定投，净值1.3321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>012348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>央视财经50指数A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手动100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -181,13 +205,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,37 +270,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -294,13 +288,13 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -315,16 +309,40 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -339,28 +357,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -644,26 +675,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.75" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="9" customWidth="1"/>
     <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="10" max="10" width="24.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -677,27 +708,32 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
+      <c r="B2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>25</v>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -710,20 +746,20 @@
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
         <v>10</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -736,20 +772,20 @@
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
         <v>10</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -765,17 +801,17 @@
       <c r="B5" s="14">
         <v>161017</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="7"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -791,17 +827,17 @@
       <c r="B6" s="14">
         <v>501009</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="4">
         <v>10</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="7"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="5"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -817,19 +853,17 @@
       <c r="B7" s="14">
         <v>164906</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="8">
+      <c r="D7" s="4"/>
+      <c r="E7" s="6">
         <v>100</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -842,20 +876,20 @@
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="B8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="4">
         <v>50</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="5"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -868,20 +902,20 @@
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <v>501050</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4">
         <v>10</v>
       </c>
-      <c r="I9" s="7"/>
+      <c r="I9" s="5"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -894,20 +928,20 @@
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="15">
+      <c r="B10" s="13">
         <v>519671</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
         <v>100</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="7"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -922,20 +956,20 @@
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>50</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -951,206 +985,236 @@
       <c r="B12" s="14">
         <v>110031</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4">
         <v>10</v>
       </c>
-      <c r="I12" s="7"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C13" s="5"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="7"/>
+      <c r="B13" s="14">
+        <v>162412</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="7"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="9">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18">
         <v>50</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="I16" s="19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <v>50</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="7"/>
-      <c r="J16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C21" s="5"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C24" s="5"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C25" s="5"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="10" t="s">
+    <row r="17" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="21">
+        <v>217027</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19" s="14"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20" s="14"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21" s="14"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22" s="14"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23" s="14"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="14"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25" s="14"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26" s="14"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27" s="14"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28" s="14"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="11">
+      <c r="C29" s="8">
+        <f>SUM(D29:H29)</f>
+        <v>460</v>
+      </c>
+      <c r="D29" s="7">
         <f>SUM(D3:D18)</f>
         <v>60</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="7">
         <f t="shared" ref="E29:G29" si="0">SUM(E3:E18)</f>
         <v>160</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="7">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="7">
         <f>SUM(H3:H19)</f>
         <v>70</v>
       </c>
-      <c r="I29" s="12">
-        <f>SUM(D29:H29)</f>
-        <v>460</v>
-      </c>
+      <c r="I29" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/FUND-202107.xlsx
+++ b/FUND-202107.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F226B3E-F35E-4603-9B0A-7F1810811289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C14CC6-DE4A-4090-BF5B-BD495DD73BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="2130" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>周1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +90,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华宝医疗ETF联接A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -160,6 +163,14 @@
   </si>
   <si>
     <t>手动100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000071</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏恒生ETF联接A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -393,6 +404,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -673,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S29"/>
+  <dimension ref="B1:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -709,10 +727,10 @@
     </row>
     <row r="2" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -730,10 +748,10 @@
         <v>4</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -747,7 +765,7 @@
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>5</v>
@@ -773,7 +791,7 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>6</v>
@@ -877,7 +895,7 @@
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B8" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>9</v>
@@ -948,7 +966,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -957,7 +975,7 @@
     </row>
     <row r="11" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>12</v>
@@ -986,7 +1004,7 @@
         <v>110031</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -1002,7 +1020,7 @@
         <v>162412</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
@@ -1013,98 +1031,94 @@
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
       <c r="J13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
+      <c r="C14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25">
+        <v>10</v>
+      </c>
+      <c r="I14" s="26"/>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4">
+        <v>10</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="2:19" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="16" t="s">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B16" s="23"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" s="23"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18">
-        <v>50</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="21">
-        <v>217027</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>33</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
+      <c r="H18" s="18">
+        <v>50</v>
+      </c>
       <c r="I18" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="14"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="14"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="21">
+        <v>217027</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="19" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" s="14"/>
@@ -1186,35 +1200,55 @@
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="8">
-        <f>SUM(D29:H29)</f>
-        <v>460</v>
-      </c>
-      <c r="D29" s="7">
-        <f>SUM(D3:D18)</f>
-        <v>60</v>
-      </c>
-      <c r="E29" s="7">
-        <f t="shared" ref="E29:G29" si="0">SUM(E3:E18)</f>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29" s="14"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30" s="14"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="8">
+        <f>SUM(D31:H31)</f>
+        <v>480</v>
+      </c>
+      <c r="D31" s="7">
+        <f>SUM(D3:D20)</f>
+        <v>70</v>
+      </c>
+      <c r="E31" s="7">
+        <f t="shared" ref="E31:G31" si="0">SUM(E3:E20)</f>
         <v>160</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F31" s="7">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G31" s="7">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="H29" s="7">
-        <f>SUM(H3:H19)</f>
-        <v>70</v>
-      </c>
-      <c r="I29" s="5"/>
+      <c r="H31" s="7">
+        <f>SUM(H3:H21)</f>
+        <v>80</v>
+      </c>
+      <c r="I31" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/FUND-202107.xlsx
+++ b/FUND-202107.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C14CC6-DE4A-4090-BF5B-BD495DD73BF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0CC108-2A12-4922-8C24-5CA3192F198E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>周1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂停</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +138,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2021/8/10恢复定投，净值1.3321</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>012348</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,15 +154,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>手动100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>000071</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>华夏恒生ETF联接A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基数*负收益率*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>001550</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘中证医药100A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000968</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发养老指数A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021/8/10恢复定投，净值1.3321
+2022/2/11，收益-26.25%，增加周5定投50*26.25%*2=26.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/2/11，收益-24.09%，增加周5定投10*24.09%*2=4.81,由于最低10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/2/11暂停，3.93%
+2022/3/8 大盘进入4.5星，恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/2/12暂停，6.60%
+2022/3/8 大盘进入4.5星，恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/2/11暂停，收益率3.66%
+2022/3/8 大盘进入4.5星，恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022/3/8 大盘进入4.5星，恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010673</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中证800</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>110020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>501021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香港中小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华宝中证消费龙头指数A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,7 +271,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +290,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -368,14 +438,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -390,20 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -411,6 +467,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -691,28 +775,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:S31"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.75" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="8" customWidth="1"/>
     <col min="3" max="3" width="24.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.75" customWidth="1"/>
-    <col min="10" max="10" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="54.25" customWidth="1"/>
+    <col min="12" max="12" width="15.875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+    <row r="1" spans="1:19" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -725,12 +810,12 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>30</v>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -751,7 +836,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -763,149 +848,149 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4"/>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="4">
-        <v>10</v>
-      </c>
+      <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>6</v>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="4">
-        <v>10</v>
-      </c>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4">
+        <v>20</v>
+      </c>
       <c r="H4" s="4"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B5" s="14">
-        <v>161017</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>7</v>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4">
-        <v>10</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="J5" s="23"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B6" s="14">
-        <v>501009</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B7" s="14">
-        <v>164906</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="6">
-        <v>100</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+    <row r="6" spans="1:19" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="29">
+        <v>4</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32">
+        <v>10</v>
+      </c>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+    </row>
+    <row r="7" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C7" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="24">
         <v>50</v>
       </c>
+      <c r="I7" s="18"/>
+      <c r="J7" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4">
+        <v>10</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
       <c r="J8" s="1"/>
@@ -919,20 +1004,23 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B9" s="13">
-        <v>501050</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4">
+        <v>50</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4">
-        <v>10</v>
-      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="5"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -945,214 +1033,349 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B10" s="13">
+    <row r="10" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17">
+        <v>10</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="26">
+        <v>110031</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17">
+        <v>10</v>
+      </c>
+      <c r="I11" s="18"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="29">
+        <v>10</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32">
+        <v>50</v>
+      </c>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+    </row>
+    <row r="13" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="26">
+        <v>161017</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
+        <v>10</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+    </row>
+    <row r="14" spans="1:19" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="26">
+        <v>162412</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17">
+        <v>50</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17">
+        <v>26.25</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="26">
+        <v>164906</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17">
+        <v>100</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+    </row>
+    <row r="16" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="26">
+        <v>217027</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:15" s="19" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="26">
+        <v>501009</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="17">
+        <v>10</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17">
+        <v>10</v>
+      </c>
+      <c r="I17" s="18"/>
+      <c r="J17" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="12">
+        <v>501050</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4">
+        <v>10</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" s="29" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="29">
+        <v>17</v>
+      </c>
+      <c r="B19" s="30">
         <v>519671</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C19" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32">
         <v>100</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4">
+        <v>10</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-    </row>
-    <row r="11" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4">
-        <v>50</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B12" s="14">
-        <v>110031</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4">
-        <v>10</v>
-      </c>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B13" s="14">
-        <v>162412</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4">
-        <v>50</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
-      <c r="J13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" s="27" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25">
-        <v>10</v>
-      </c>
-      <c r="I14" s="26"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="4">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B16" s="23"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="23"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18">
-        <v>50</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="21">
-        <v>217027</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="4">
+        <v>10</v>
+      </c>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="4">
+        <v>10</v>
+      </c>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B23" s="14"/>
-      <c r="C23" s="11"/>
+    <row r="23" spans="1:15" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" s="13">
+        <v>501090</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>50</v>
+      </c>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23">
+        <v>10</v>
+      </c>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
       <c r="I23" s="5"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="14"/>
-      <c r="C24" s="11"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="10"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1160,97 +1383,40 @@
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="5"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="14"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="14"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="14"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
-    </row>
-    <row r="31" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="8">
-        <f>SUM(D31:H31)</f>
-        <v>480</v>
-      </c>
-      <c r="D31" s="7">
-        <f>SUM(D3:D20)</f>
-        <v>70</v>
-      </c>
-      <c r="E31" s="7">
-        <f t="shared" ref="E31:G31" si="0">SUM(E3:E20)</f>
-        <v>160</v>
-      </c>
-      <c r="F31" s="7">
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7">
+        <f>SUM(D25:H25)</f>
+        <v>586.25</v>
+      </c>
+      <c r="D25" s="6">
+        <f>SUM(D3:D23)</f>
+        <v>80</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" ref="E25:G25" si="0">SUM(E3:E23)</f>
+        <v>170</v>
+      </c>
+      <c r="F25" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G31" s="7">
+        <v>80</v>
+      </c>
+      <c r="G25" s="6">
         <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="H31" s="7">
-        <f>SUM(H3:H21)</f>
-        <v>80</v>
-      </c>
-      <c r="I31" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="H25" s="6">
+        <f>SUM(H3:H24)</f>
+        <v>116.25</v>
+      </c>
+      <c r="I25" s="6"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O24">
+    <sortCondition ref="B3:B24"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="C1:H1"/>
   </mergeCells>
